--- a/tiramisu26/evidence.xlsx
+++ b/tiramisu26/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>TxHash</t>
   </si>
@@ -73,24 +73,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -137,13 +119,68 @@
   </si>
   <si>
     <t>uptick13l524ns9avwsmzp4n4fdpljynzeqfe0gxfdryf</t>
+  </si>
+  <si>
+    <t>nft001</t>
+  </si>
+  <si>
+    <t>nft002</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1CF92331BBCF6EABA4910682B8FC9355AC51BDC5285D31B03C0B90ACCBD41BB
+</t>
+  </si>
+  <si>
+    <t>tirmizuanftlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6E2146C0A80F2A6A7C9B3D3621D89E798B83210A49A64D0C45A0758FAAD31567
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C33F3B7F5DC5F612EB9DDAB9887E600C0044DC2FA63D07EE06BE7872AEBE15B
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juno10x2lqnvp7l5lqz09hkvh5xs52v6hah2varpjjh8ky9c6d4yn8mnq8rql3j
+</t>
+  </si>
+  <si>
+    <t>6A49DFE34ACEEBE58C63464314775EF75A1C7ADB538737473A0A614C647B02D0</t>
+  </si>
+  <si>
+    <t>E60D6FE3EF8F913FB13C307C71D538BF7E126E16C237837747AA282E60C65D03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/E219FC263869831A87868AA959ED427EFD79F5A5E702A21F4FD996E5746DE12D
+</t>
+  </si>
+  <si>
+    <t>32E2AE6CA65A68F07946800A096BDFF78DA1AD120C4DBB51749E074517D66863</t>
+  </si>
+  <si>
+    <t>juno10x2lqnvp7l5lqz09hkvh5xs52v6hah2varpjjh8ky9c6d4yn8mnq8rql3j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8A523A5524BDA9C9ACD10359BEE46A41AC9314D8EA85A1D900199E8E85E9D765
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/E219FC263869831A87868AA959ED427EFD79F5A5E702A21F4FD996E5746DE12D
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +193,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +269,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -548,54 +602,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1096,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1058,11 +1114,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1307,9 +1363,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1329,18 +1387,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1421,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1376,16 +1448,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1472,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1425,16 +1499,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1523,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1474,16 +1550,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1574,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1523,17 +1601,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tiramisu26/evidence.xlsx
+++ b/tiramisu26/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" firstSheet="3" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,45 +32,25 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -174,6 +154,189 @@
   <si>
     <t xml:space="preserve">ibc/E219FC263869831A87868AA959ED427EFD79F5A5E702A21F4FD996E5746DE12D
 </t>
+  </si>
+  <si>
+    <t>ibc/434A5DA979F181A3FD4F71318EE6995749A6F508F9301B9BC1A833BD8917A8DE</t>
+  </si>
+  <si>
+    <t>trunft007</t>
+  </si>
+  <si>
+    <t>ibc/45F3EF9F49D5F8E64899AF5A3EC6F108ECD981935FF0DED0B4918B30A73BAE59</t>
+  </si>
+  <si>
+    <t>trunft008</t>
+  </si>
+  <si>
+    <t>ibc/735E24573BB339A7D316F4019AFAC2F165A476BD267ECBB295902C3384CD2AC9</t>
+  </si>
+  <si>
+    <t>trunft009</t>
+  </si>
+  <si>
+    <t>ibc/7162F1195669E989AD9D01F5D8D4EC3688A6D6ECACD62083C0DFFA3035898D4E</t>
+  </si>
+  <si>
+    <t>trunft010</t>
+  </si>
+  <si>
+    <t>ibc/A118E0D13F0B86B72846C2DC4AA2A1ABDC691C6073F34A1C94EA2BADD4DB2B76</t>
+  </si>
+  <si>
+    <t>trunft011</t>
+  </si>
+  <si>
+    <t>ibc/FFB20F18090CB051BCA54A8BCD1844476EFD40C3609FA78FEFFF2293C6255A9A</t>
+  </si>
+  <si>
+    <t>trunft012</t>
+  </si>
+  <si>
+    <t>35165F2A8CCFC615682983028011E6ABCC1A590FB3153120BADD335BB10C9B55</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>255F560C7943B61852071ACAF7108A7A722980E39D0CF20F32371DB1760A72E7</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>DDA5D08916E64CCDC8D2BF3B1B53873C57DC9C351D748CB33CF0E50C127F11C4</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>0CB7420F675C84D21963D507148D32202B3C20F15EF3D189A24388E5683253B3</t>
+  </si>
+  <si>
+    <t>D921DA45EAF429074955D2EF425D690659E5F34EB7F865ED81E03FB143879D26</t>
+  </si>
+  <si>
+    <t>B609EC2992E3F90233B3E2A964D81ADD56128D1065CF9607245EA1E270968297</t>
+  </si>
+  <si>
+    <t>014651C8202BBDC44213A7750206E3B9B04F14A7105F0977380B9E302DF24A4D</t>
+  </si>
+  <si>
+    <t>78159507B7F8AA1E5DED863202905E2ADD9D409BCF3ABF17F036AB76F25FC6B2</t>
+  </si>
+  <si>
+    <t>955A55008845D40B3EA3DCCE19C088F75773A9D193DB3581136E072E7EAD6371</t>
+  </si>
+  <si>
+    <t>F989A32C73F524503777ABBC9D9B7D24AE2CD92711EC8D83FF7EEE818447DD78</t>
+  </si>
+  <si>
+    <t>A7A38087CABF7938171D5C07076E2E80D791503AD751588AE602ED92EDF70870</t>
+  </si>
+  <si>
+    <t>4B946CB89ADF3214881D588CB34E872CB278A14D6529A835D25160DEF5F5E212</t>
+  </si>
+  <si>
+    <t>A14D349A1E71EB5E5A04FC7EAEA3D7DF04F3DFA58DF4E031E05CC2247D866DD4</t>
+  </si>
+  <si>
+    <t>880456B21C46C5D03F6B89810967414F8FF65247D2ACE5E1638CD366ED2495E3</t>
+  </si>
+  <si>
+    <t>2E6CF3E349791D99D3A0DAAFE23695DE52C0C08CA5762D40AF6D46FD96D575F4</t>
+  </si>
+  <si>
+    <t>6BED64BBD25D3870D9DEF45171849782147FB4024967BE1D1BDDE36F785E0CCB</t>
+  </si>
+  <si>
+    <t>54C5442E24BED6289283B7CFBDD62647B04C334388C8742310DB844BED1A1427</t>
+  </si>
+  <si>
+    <t>6556A18D05E83D385CFC011BE77E5161002E81163B752E121676C50EE4CA9A53</t>
+  </si>
+  <si>
+    <t>62B1ECEBBE3B66E7A8FC2DA816CFB73F876E30549A118218E4BAF3CBCAA630DA</t>
+  </si>
+  <si>
+    <t>3CC2C6EF685F4D3AC9D8BB43708DC1CB549419A1432AD35462E44BCE25084442</t>
+  </si>
+  <si>
+    <t>765DFF9010A3962959BEFF9DF2405BB69BAEEB2CBC6D1599B14A47E9198F1468</t>
+  </si>
+  <si>
+    <t>DDE1AFD9A71ED339DC5E9A62166D7853DA52BE250D9CDA1BCC331F9023256A58</t>
+  </si>
+  <si>
+    <t>90CB7123E1F610EA0C281B4D5F9018D5A3E7BC58451D4FC21AF55A022F9DECCE</t>
+  </si>
+  <si>
+    <t>A5F2E5FB7720C98AAEF22288927BFD1D8130553DC6086003444F1E4404CA25FC</t>
+  </si>
+  <si>
+    <t>07211E32C091C7EAC87741C9F99D2EB94F0C8988718857526639F907C268DEC7</t>
+  </si>
+  <si>
+    <t>AF96F64522FF17BF520C90FF5C7B8E11694019392502C24B43E5E50111563E15</t>
+  </si>
+  <si>
+    <t>10F024E6549ECA7AAB626362BBA79FF824FF204892B08F3D4514C1B154A1AB32</t>
+  </si>
+  <si>
+    <t>C71327EC9B214590B7B3E3D92243E63F33233DF727FD6859623262A30E041CD1</t>
+  </si>
+  <si>
+    <t>46474C23A2EE589F62914C956C18ABD8956FC029D95F50412B42A571F3EE46BC</t>
+  </si>
+  <si>
+    <t>45F1E6A760860FE2B2413F29FC93146A205FFF4BEF79151BBD362884B778550E</t>
+  </si>
+  <si>
+    <t>57C12DB66FB767B22F16E6E27F15FC802F20D36A27D7D7B8E9309C9C26A83F3F</t>
+  </si>
+  <si>
+    <t>66963681A9E4878FECC98AEFC716B6A40D463075F80844D556C9607A3A9E763D</t>
+  </si>
+  <si>
+    <t>50C9D534AA23DE44F329467A901A4E1AE4E060197D9FA21FD6542B85810774AC</t>
+  </si>
+  <si>
+    <t>5AF9A347539A9F6DD9603D98D28DA3F5CACA06EA66F7BDDC2507D9475559087D</t>
+  </si>
+  <si>
+    <t>31B1DF51C93D186887A328B5049B626535F8AD6BD64BE6698BD5D95143CF27A4</t>
+  </si>
+  <si>
+    <t>FDC227BC5E36F22948E98693F610DB33E6EBA8FAFE1F23164BB1847DD595CFE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36CFAF1D2C0B1D4B29E07BE56ED91A571EBA283E3F7D9A8633BB3BDD9949CF12 </t>
+  </si>
+  <si>
+    <t>7CCAE779331A71BB60D1AA0DB2D45D1C6457497C86BB1E8298984E9E041CFC23</t>
+  </si>
+  <si>
+    <t>55E0C3CBAEB5E1B35A00EA7CC47E419E1A10C1927EEF0A8CEAAF0F8A1EC3811F</t>
+  </si>
+  <si>
+    <t>53A19AB50D2A06146BAF6191865DD1E0F7DDC0E58369F2B80A1A89953DB9AE83</t>
+  </si>
+  <si>
+    <t>F2A96254F5085FA7351F4C8AD08A543DB2CB987F230E928DCFE3384AF1C0700A</t>
+  </si>
+  <si>
+    <t>20CF38C79F861B1E618E66DF3B6EB7CB40091B164DF252E0836BF5E5B8D27B91</t>
+  </si>
+  <si>
+    <t>42E94F8E6895A65A8229C21DC817B516EE677523B8674AEACB386040DED0E586</t>
+  </si>
+  <si>
+    <t>5BD0F0E17152170B2AEA9BBAB808E0400C8770458E99FB4ABA4B4CDDBD70D69C</t>
+  </si>
+  <si>
+    <t>12DCB0F7BDBF14E238526401E058AF6B9B97FE7634EB16F1A63CCBBE574A2051</t>
+  </si>
+  <si>
+    <t>7BCE2D2EC7B6A900E56BA2D370598AFB991E29F95A14A6F122617EC878B8AD82</t>
   </si>
 </sst>
 </file>
@@ -254,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,6 +443,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,54 +766,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +828,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -674,18 +840,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +866,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -710,18 +878,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +904,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -746,18 +916,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +942,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -782,18 +954,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -806,9 +978,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -821,31 +995,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -854,9 +1041,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -869,28 +1058,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,9 +1103,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -917,28 +1120,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,9 +1165,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -965,28 +1182,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,9 +1227,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1013,28 +1244,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1046,9 +1289,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1061,28 +1306,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,15 +1367,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1131,9 +1388,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1146,28 +1405,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,9 +1466,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1194,28 +1483,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1546,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1243,12 +1562,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1582,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1277,12 +1598,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1618,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1311,12 +1634,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1654,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1345,12 +1670,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1380,32 +1735,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1437,27 +1792,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1488,27 +1843,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1539,27 +1894,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1929,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1591,27 +1946,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1981,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1636,18 +1993,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2019,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1672,18 +2031,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
